--- a/project/laliga2019/goalkeeping.xlsx
+++ b/project/laliga2019/goalkeeping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\homework\project\laliga2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516C606B-40E8-44FA-8516-F31D7B32566D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFFBAA8-E92F-4B5D-B9BF-C259ACAB7693}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{3DF62FAE-7517-4BD1-9ACC-E627C11A92A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3DF62FAE-7517-4BD1-9ACC-E627C11A92A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
-  <si>
-    <t>Goals</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>Launched</t>
   </si>
@@ -75,15 +72,9 @@
     <t>Att</t>
   </si>
   <si>
-    <t>Cmp%</t>
-  </si>
-  <si>
     <t>Thr</t>
   </si>
   <si>
-    <t>Launch%</t>
-  </si>
-  <si>
     <t>AvgLen</t>
   </si>
   <si>
@@ -93,9 +84,6 @@
     <t>Stp</t>
   </si>
   <si>
-    <t>Stp%</t>
-  </si>
-  <si>
     <t>Marc-André ter Stegen</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
   </si>
   <si>
     <t>CS</t>
-  </si>
-  <si>
-    <t>CS%</t>
   </si>
   <si>
     <t>PKatt</t>
@@ -230,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -419,15 +404,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF747678"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="dotted">
         <color rgb="FFDDDDDD"/>
       </bottom>
@@ -519,6 +495,94 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF747678"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDDDDDD"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF747678"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -526,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -597,29 +661,50 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -627,34 +712,37 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -972,10 +1060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4117EF61-0379-49FF-A3AD-E38417D9E32F}">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,448 +1074,371 @@
     <col min="5" max="5" width="5.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="6.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="5.77734375" style="3" customWidth="1"/>
-    <col min="8" max="12" width="4.109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="5.6640625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="5.109375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="7.109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="5.109375" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="9" style="3" customWidth="1"/>
-    <col min="20" max="20" width="5.33203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" style="3" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" style="3" customWidth="1"/>
-    <col min="23" max="25" width="5.33203125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="5.33203125" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" customWidth="1"/>
-    <col min="28" max="28" width="6.88671875" customWidth="1"/>
-    <col min="29" max="29" width="7.109375" customWidth="1"/>
-    <col min="30" max="30" width="7.88671875" customWidth="1"/>
-    <col min="31" max="34" width="5.33203125" customWidth="1"/>
-    <col min="35" max="35" width="6.5546875" customWidth="1"/>
-    <col min="36" max="36" width="7.6640625" customWidth="1"/>
-    <col min="37" max="37" width="5.33203125" customWidth="1"/>
-    <col min="38" max="38" width="6.21875" customWidth="1"/>
-    <col min="39" max="39" width="6.88671875" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="5.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="5.109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3" customWidth="1"/>
+    <col min="13" max="13" width="5.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" style="3" customWidth="1"/>
+    <col min="15" max="16" width="5.33203125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="5.33203125" customWidth="1"/>
+    <col min="18" max="21" width="5.77734375" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" customWidth="1"/>
+    <col min="23" max="23" width="7.109375" customWidth="1"/>
+    <col min="24" max="24" width="7.88671875" customWidth="1"/>
+    <col min="25" max="28" width="5.33203125" customWidth="1"/>
+    <col min="29" max="29" width="7.6640625" customWidth="1"/>
+    <col min="30" max="30" width="5.33203125" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" customWidth="1"/>
+    <col min="32" max="32" width="6.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="41" t="s">
+    <row r="1" spans="1:32" s="1" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="40" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="40" t="s">
+      <c r="K1" s="38"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="42"/>
-      <c r="T1" s="40" t="s">
+      <c r="N1" s="39"/>
+      <c r="O1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="40" t="s">
+      <c r="P1" s="38"/>
+      <c r="Q1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
+      <c r="V1" s="43"/>
+      <c r="W1" s="43"/>
+      <c r="X1" s="43"/>
+      <c r="Y1" s="43"/>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="43"/>
+      <c r="AB1" s="46"/>
+      <c r="AC1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD1" s="41"/>
+      <c r="AE1" s="41"/>
+      <c r="AF1" s="42"/>
+    </row>
+    <row r="2" spans="1:32" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="42"/>
-      <c r="Z1" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="39"/>
-      <c r="AJ1" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="36"/>
-    </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>8</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>9</v>
+        <v>27</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>14</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+      <c r="O2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="Q2" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y2" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="8" t="s">
+      <c r="B3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>20</v>
-      </c>
-      <c r="X2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="AJ2" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM2" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" s="1" customFormat="1" ht="13.8" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>24</v>
       </c>
       <c r="D3" s="16">
         <v>27</v>
       </c>
-      <c r="E3" s="43">
+      <c r="E3" s="34">
         <v>36</v>
       </c>
-      <c r="F3" s="44">
+      <c r="F3" s="35">
         <v>36</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="36">
         <v>3240</v>
       </c>
-      <c r="H3" s="26">
+      <c r="H3" s="17">
+        <v>205</v>
+      </c>
+      <c r="I3" s="18">
+        <v>338</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1200</v>
+      </c>
+      <c r="K3" s="18">
+        <v>177</v>
+      </c>
+      <c r="L3" s="19">
+        <v>28.8</v>
+      </c>
+      <c r="M3" s="17">
+        <v>219</v>
+      </c>
+      <c r="N3" s="19">
+        <v>31</v>
+      </c>
+      <c r="O3" s="17">
+        <v>266</v>
+      </c>
+      <c r="P3" s="18">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="17">
         <v>36</v>
       </c>
-      <c r="I3" s="18">
+      <c r="R3" s="18">
+        <v>1</v>
+      </c>
+      <c r="S3" s="18">
+        <v>2</v>
+      </c>
+      <c r="T3" s="18">
+        <v>1</v>
+      </c>
+      <c r="U3" s="44">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26">
+        <v>110</v>
+      </c>
+      <c r="W3" s="18">
+        <v>78</v>
+      </c>
+      <c r="X3" s="18">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="Y3" s="18">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="18">
         <v>6</v>
       </c>
-      <c r="J3" s="18">
-        <v>2</v>
-      </c>
-      <c r="K3" s="18">
+      <c r="AA3" s="18">
+        <v>6</v>
+      </c>
+      <c r="AB3" s="19">
+        <v>14</v>
+      </c>
+      <c r="AC3" s="17">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="18">
+        <v>6</v>
+      </c>
+      <c r="AE3" s="18">
         <v>1</v>
       </c>
-      <c r="L3" s="19">
+      <c r="AF3" s="19">
         <v>0</v>
       </c>
-      <c r="M3" s="17">
-        <v>205</v>
-      </c>
-      <c r="N3" s="18">
-        <v>338</v>
-      </c>
-      <c r="O3" s="19">
-        <v>60.7</v>
-      </c>
-      <c r="P3" s="17">
-        <v>1200</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>177</v>
-      </c>
-      <c r="R3" s="18">
-        <v>22.8</v>
-      </c>
-      <c r="S3" s="19">
-        <v>28.8</v>
-      </c>
-      <c r="T3" s="17">
-        <v>219</v>
-      </c>
-      <c r="U3" s="18">
-        <v>29.7</v>
-      </c>
-      <c r="V3" s="19">
-        <v>31</v>
-      </c>
-      <c r="W3" s="17">
-        <v>266</v>
-      </c>
-      <c r="X3" s="18">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Z3" s="17">
-        <v>36</v>
-      </c>
-      <c r="AA3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="18">
-        <v>110</v>
-      </c>
-      <c r="AC3" s="18">
-        <v>78</v>
-      </c>
-      <c r="AD3" s="18">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="AE3" s="18">
+    </row>
+    <row r="4" spans="1:32" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="AF3" s="18">
-        <v>6</v>
-      </c>
-      <c r="AG3" s="18">
-        <v>6</v>
-      </c>
-      <c r="AH3" s="18">
-        <v>14</v>
-      </c>
-      <c r="AI3" s="19">
-        <v>38.9</v>
-      </c>
-      <c r="AJ3" s="17">
-        <v>7</v>
-      </c>
-      <c r="AK3" s="18">
-        <v>6</v>
-      </c>
-      <c r="AL3" s="18">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" s="1" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>28</v>
-      </c>
       <c r="C4" s="22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" s="22">
         <v>30</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="28">
         <v>2</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <v>2</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="30">
         <v>180</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="23">
+        <v>4</v>
+      </c>
+      <c r="I4" s="24">
+        <v>10</v>
+      </c>
+      <c r="J4" s="23">
+        <v>47</v>
+      </c>
+      <c r="K4" s="24">
+        <v>5</v>
+      </c>
+      <c r="L4" s="25">
+        <v>24.6</v>
+      </c>
+      <c r="M4" s="23">
+        <v>15</v>
+      </c>
+      <c r="N4" s="25">
+        <v>22.8</v>
+      </c>
+      <c r="O4" s="23">
+        <v>13</v>
+      </c>
+      <c r="P4" s="24">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="28">
         <v>2</v>
       </c>
-      <c r="I4" s="24">
+      <c r="R4" s="50">
+        <v>1</v>
+      </c>
+      <c r="S4" s="50">
         <v>0</v>
       </c>
-      <c r="J4" s="24">
+      <c r="T4" s="50">
         <v>0</v>
       </c>
-      <c r="K4" s="24">
+      <c r="U4" s="51">
         <v>0</v>
       </c>
-      <c r="L4" s="25">
+      <c r="V4" s="29">
+        <v>3</v>
+      </c>
+      <c r="W4" s="50">
+        <v>1</v>
+      </c>
+      <c r="X4" s="50">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="Y4" s="50">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="50">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="50">
         <v>0</v>
       </c>
-      <c r="M4" s="23">
-        <v>4</v>
-      </c>
-      <c r="N4" s="24">
-        <v>10</v>
-      </c>
-      <c r="O4" s="25">
-        <v>40</v>
-      </c>
-      <c r="P4" s="23">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="24">
-        <v>5</v>
-      </c>
-      <c r="R4" s="24">
-        <v>17</v>
-      </c>
-      <c r="S4" s="25">
-        <v>24.6</v>
-      </c>
-      <c r="T4" s="23">
-        <v>15</v>
-      </c>
-      <c r="U4" s="24">
-        <v>13.3</v>
-      </c>
-      <c r="V4" s="25">
-        <v>22.8</v>
-      </c>
-      <c r="W4" s="23">
-        <v>13</v>
-      </c>
-      <c r="X4" s="24">
+      <c r="AB4" s="52">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="23">
         <v>0</v>
       </c>
-      <c r="Y4" s="25">
+      <c r="AD4" s="24">
         <v>0</v>
       </c>
-      <c r="Z4" s="23">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="24">
-        <v>3</v>
-      </c>
-      <c r="AC4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="24">
-        <v>0.33300000000000002</v>
-      </c>
       <c r="AE4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="24">
         <v>0</v>
       </c>
-      <c r="AH4" s="24">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="25">
-        <v>50</v>
-      </c>
-      <c r="AJ4" s="23">
+      <c r="AF4" s="25">
         <v>0</v>
       </c>
-      <c r="AK4" s="24">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="24">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" s="2" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -1438,117 +1449,95 @@
       <c r="F5" s="5">
         <v>38</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="31">
         <v>3420</v>
       </c>
-      <c r="H5" s="29">
+      <c r="H5" s="4">
+        <v>209</v>
+      </c>
+      <c r="I5" s="5">
+        <v>348</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1247</v>
+      </c>
+      <c r="K5" s="5">
+        <v>182</v>
+      </c>
+      <c r="L5" s="7">
+        <v>28.6</v>
+      </c>
+      <c r="M5" s="4">
+        <v>234</v>
+      </c>
+      <c r="N5" s="7">
+        <v>30.4</v>
+      </c>
+      <c r="O5" s="4">
+        <v>279</v>
+      </c>
+      <c r="P5" s="5">
+        <v>13</v>
+      </c>
+      <c r="Q5" s="4">
         <v>38</v>
       </c>
-      <c r="I5" s="5">
+      <c r="R5" s="5">
+        <v>1</v>
+      </c>
+      <c r="S5" s="5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="5">
+        <v>1</v>
+      </c>
+      <c r="U5" s="53">
+        <v>0</v>
+      </c>
+      <c r="V5" s="27">
+        <v>113</v>
+      </c>
+      <c r="W5" s="5">
+        <v>79</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="5">
         <v>6</v>
       </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="AB5" s="5">
+        <v>15</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>7</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>6</v>
+      </c>
+      <c r="AE5" s="5">
         <v>1</v>
       </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
-        <v>209</v>
-      </c>
-      <c r="N5" s="5">
-        <v>348</v>
-      </c>
-      <c r="O5" s="7">
-        <v>60.1</v>
-      </c>
-      <c r="P5" s="4">
-        <v>1247</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>182</v>
-      </c>
-      <c r="R5" s="5">
-        <v>22.5</v>
-      </c>
-      <c r="S5" s="7">
-        <v>28.6</v>
-      </c>
-      <c r="T5" s="4">
-        <v>234</v>
-      </c>
-      <c r="U5" s="5">
-        <v>28.6</v>
-      </c>
-      <c r="V5" s="7">
-        <v>30.4</v>
-      </c>
-      <c r="W5" s="4">
-        <v>279</v>
-      </c>
-      <c r="X5" s="5">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>4.7</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>38</v>
-      </c>
-      <c r="AA5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="5">
-        <v>113</v>
-      </c>
-      <c r="AC5" s="5">
-        <v>79</v>
-      </c>
-      <c r="AD5" s="5">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="AE5" s="5">
-        <v>25</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>7</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>6</v>
-      </c>
-      <c r="AH5" s="5">
-        <v>15</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>39.5</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>7</v>
-      </c>
-      <c r="AK5" s="5">
-        <v>6</v>
-      </c>
-      <c r="AL5" s="5">
-        <v>1</v>
-      </c>
-      <c r="AM5" s="7">
+      <c r="AF5" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="H1:L1"/>
+  <mergeCells count="8">
+    <mergeCell ref="H1:I1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="Z1:AI1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="J1:L1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://fbref.com/en/country/BRA/Brazil-Football" xr:uid="{7F893CBA-7FDA-419C-9FB4-18836EAEF5F0}"/>
